--- a/data/exampleStochastic/Power_WeightsK.xlsx
+++ b/data/exampleStochastic/Power_WeightsK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50F0786-9A90-4A22-8E73-E8DBF770FF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382FAEAB-29CB-4E22-A792-4E3FECCEC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -1523,7 +1523,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>26</v>
@@ -1538,7 +1538,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>26</v>
@@ -1628,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>26</v>
@@ -1643,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>26</v>

--- a/data/exampleStochastic/Power_WeightsK.xlsx
+++ b/data/exampleStochastic/Power_WeightsK.xlsx
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -590,7 +590,7 @@
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="17.7109375" customWidth="1" min="3" max="3"/>
     <col width="31.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour within rp</t>
+          <t>Representative time step within rp</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -1309,12 +1309,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1333,7 +1333,7 @@
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="17.7109375" customWidth="1" min="3" max="3"/>
     <col width="31.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour within rp</t>
+          <t>Representative time step within rp</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -2052,6 +2052,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_WeightsK.xlsx
+++ b/data/exampleStochastic/Power_WeightsK.xlsx
@@ -596,7 +596,7 @@
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_WeightsK.xlsx
+++ b/data/exampleStochastic/Power_WeightsK.xlsx
@@ -31,7 +31,7 @@
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -46,7 +46,7 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
@@ -63,38 +63,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
   </fills>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -588,12 +588,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="17.7109375" customWidth="1" min="3" max="3"/>
     <col width="31.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -1309,12 +1309,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1331,12 +1331,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="17.7109375" customWidth="1" min="3" max="3"/>
     <col width="31.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2052,6 +2052,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>